--- a/biology/Médecine/Bernard_Nieuwentyt/Bernard_Nieuwentyt.xlsx
+++ b/biology/Médecine/Bernard_Nieuwentyt/Bernard_Nieuwentyt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Nieuwentyt (né le 10 août 1654 à West-Graftdijk en Hollande-Septentrionale - mort le 30 mai 1718 à Purmerend) est un médecin et mathématicien néerlandais. En philosophie, il est disciple de Descartes et opposé à Spinoza. Il exerce les fonctions de bourgmestre de Purmerend et est membre des États de sa province. 
 En 1694, il critique violemment le calcul infinitésimal de Leibniz par son manque de fondement logique, même s'il reconnaissait que ce nouveau calcul conduisait souvent au bon résultat.
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Marie-Nicolas Bouillet  et Alexis Chassang (dir.), « Bernard Nieuwentyt » dans Dictionnaire universel d’histoire et de géographie, 1878 (lire sur Wikisource)</t>
         </is>
